--- a/Test Data/TC_54167_Verify_Adding_And_Removing_Of_TLI800_And_TLI800EN_From_Accessory_Gallery.xlsx
+++ b/Test Data/TC_54167_Verify_Adding_And_Removing_Of_TLI800_And_TLI800EN_From_Accessory_Gallery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3119A9-80B7-4E64-96CF-EE72FB68291F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE39C4-3727-44B0-9F63-B6C0B2514C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Color Codes</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>MX 4000</t>
-  </si>
-  <si>
-    <t>MZX 252</t>
   </si>
   <si>
     <t>TLI800</t>
@@ -520,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>0</v>
@@ -564,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
@@ -576,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
@@ -606,22 +603,22 @@
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -632,54 +629,25 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
